--- a/13. Exams/Preparation Materials/JS Contests bgcoder.xlsx
+++ b/13. Exams/Preparation Materials/JS Contests bgcoder.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="11280" windowHeight="4956"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11280" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="OOP" sheetId="7" r:id="rId1"/>
@@ -207,7 +207,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,12 +308,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,9 +320,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,9 +351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +391,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -449,7 +461,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,32 +640,32 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="40.15" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -673,14 +685,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="54">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="56.25">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -689,17 +701,17 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -707,14 +719,14 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -725,17 +737,17 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -745,17 +757,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -765,14 +777,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="40.15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -783,17 +795,17 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="49.95" customHeight="1">
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="49.9" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
